--- a/data/trans_dic/IP16B04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16B04-Habitat-trans_dic.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,22 +632,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,22 +657,22 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,22 +685,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,22 +710,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -945,14 +945,14 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>55,59; 100</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -992,12 +992,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1087,17 +1087,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1140,32 +1140,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,85; 100</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16B04-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1279,6 +1279,13 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>

--- a/data/trans_dic/IP16B04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16B04-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/IP16B04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16B04-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,14 +725,14 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,75; 100</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -772,12 +772,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -805,44 +805,44 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
+          <t>22,85; 100</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>43,07; 100</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>22,85; 100</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>55,59; 100</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>63,75; 100</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -925,34 +925,34 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22,85; 100</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>43,07; 100</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>43,07; 100</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>22,85; 100</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -967,17 +967,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1020,17 +1020,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1045,24 +1045,24 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,85; 100</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1135,159 +1135,49 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>79,25; 100</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>55,59; 100</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>55,59; 100</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>43,07; 100</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>43,07; 100</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>22,85; 100</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>73,58; 100</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>69,43; 100</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>63,75; 100</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>79,25; 100</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
